--- a/testing.export.xlsx
+++ b/testing.export.xlsx
@@ -392,10 +392,16 @@
       <c r="A2" t="str">
         <v>hallo</v>
       </c>
+      <c r="B2" t="str">
+        <v>1,2,3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>tschüss</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1,2,3</v>
       </c>
     </row>
   </sheetData>
